--- a/other2/thomas/uva_12206/stammeringAliens_UVA12206.xlsx
+++ b/other2/thomas/uva_12206/stammeringAliens_UVA12206.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\gzshawnliang\competitive-programming\other2\thomas\uva_12206\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\shawnGitHub\other2\thomas\uva_12206\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C53C76-0E02-495F-ABAF-5F08C9B4F205}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10019CD9-90B6-4AC0-94CD-4D6A84343BFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17080" xr2:uid="{E6A6EAB0-30B0-41AA-94DD-ACAD06B9F8CB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17085" xr2:uid="{E6A6EAB0-30B0-41AA-94DD-ACAD06B9F8CB}"/>
   </bookViews>
   <sheets>
     <sheet name="二分+哈希" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="15">
   <si>
     <t>b</t>
   </si>
@@ -191,12 +191,34 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二分子串</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>len</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,6 +290,13 @@
       <sz val="18"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Source Code Pro"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -436,7 +465,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -517,6 +546,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1127,25 +1159,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{026922AC-E655-4BE4-8830-8F05A8B9A809}">
-  <dimension ref="A2:W91"/>
+  <dimension ref="A1:W91"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA12" sqref="AA12"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="24" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="1"/>
-    <col min="2" max="21" width="3.83203125" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="8.625" style="1"/>
+    <col min="2" max="21" width="3.875" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B1" s="27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B3" s="2">
         <v>0</v>
       </c>
@@ -1207,7 +1244,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1269,7 +1306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B7" s="24" t="s">
         <v>3</v>
       </c>
@@ -1293,12 +1330,12 @@
       <c r="T7" s="25"/>
       <c r="U7" s="26"/>
     </row>
-    <row r="9" spans="1:22" ht="24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
         <v>0</v>
       </c>
@@ -1360,7 +1397,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>0</v>
       </c>
@@ -1422,12 +1459,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="24.75" x14ac:dyDescent="0.2">
       <c r="V12" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="3" t="s">
         <v>0</v>
@@ -1473,7 +1510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="3" t="s">
         <v>1</v>
       </c>
@@ -1508,7 +1545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3" t="s">
         <v>1</v>
       </c>
@@ -1543,7 +1580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
       <c r="E17" s="3" t="s">
         <v>1</v>
       </c>
@@ -1578,7 +1615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
       <c r="F18" s="3" t="s">
         <v>1</v>
       </c>
@@ -1613,7 +1650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
       <c r="G19" s="3" t="s">
         <v>0</v>
       </c>
@@ -1651,7 +1688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
       <c r="H20" s="3" t="s">
         <v>1</v>
       </c>
@@ -1689,7 +1726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
       <c r="I21" s="3" t="s">
         <v>0</v>
       </c>
@@ -1727,7 +1764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
       <c r="J22" s="3" t="s">
         <v>1</v>
       </c>
@@ -1765,7 +1802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
       <c r="K23" s="3" t="s">
         <v>0</v>
       </c>
@@ -1803,17 +1840,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:22" ht="24" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:22" ht="24.75" x14ac:dyDescent="0.2">
       <c r="V24" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="2:22" ht="24" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:22" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B26" s="15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B27" s="2">
         <v>0</v>
       </c>
@@ -1875,7 +1912,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
         <v>0</v>
       </c>
@@ -1937,12 +1974,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:22" ht="24" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:22" ht="24.75" x14ac:dyDescent="0.2">
       <c r="V30" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="s">
         <v>0</v>
       </c>
@@ -1962,7 +1999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C32" s="3" t="s">
         <v>1</v>
       </c>
@@ -1982,7 +2019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="4:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D33" s="3" t="s">
         <v>1</v>
       </c>
@@ -2002,7 +2039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="4:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:23" x14ac:dyDescent="0.2">
       <c r="E34" s="3" t="s">
         <v>1</v>
       </c>
@@ -2022,7 +2059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="4:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:23" x14ac:dyDescent="0.2">
       <c r="F35" s="10" t="s">
         <v>1</v>
       </c>
@@ -2042,7 +2079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="4:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:23" x14ac:dyDescent="0.2">
       <c r="G36" s="14" t="s">
         <v>0</v>
       </c>
@@ -2095,7 +2132,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="4:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:23" x14ac:dyDescent="0.2">
       <c r="H37" s="10" t="s">
         <v>1</v>
       </c>
@@ -2115,7 +2152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="4:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:23" x14ac:dyDescent="0.2">
       <c r="I38" s="14" t="s">
         <v>0</v>
       </c>
@@ -2162,7 +2199,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="4:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:23" x14ac:dyDescent="0.2">
       <c r="J39" s="9" t="s">
         <v>1</v>
       </c>
@@ -2182,7 +2219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="4:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:23" x14ac:dyDescent="0.2">
       <c r="K40" s="12" t="s">
         <v>0</v>
       </c>
@@ -2202,7 +2239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="4:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:23" x14ac:dyDescent="0.2">
       <c r="L41" s="13" t="s">
         <v>1</v>
       </c>
@@ -2222,7 +2259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="4:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:23" x14ac:dyDescent="0.2">
       <c r="M42" s="3" t="s">
         <v>0</v>
       </c>
@@ -2242,7 +2279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="4:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:23" x14ac:dyDescent="0.2">
       <c r="N43" s="14" t="s">
         <v>0</v>
       </c>
@@ -2274,7 +2311,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="4:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:23" x14ac:dyDescent="0.2">
       <c r="O44" s="11" t="s">
         <v>1</v>
       </c>
@@ -2294,7 +2331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="4:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:23" x14ac:dyDescent="0.2">
       <c r="P45" s="12" t="s">
         <v>0</v>
       </c>
@@ -2314,7 +2351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="4:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:23" x14ac:dyDescent="0.2">
       <c r="Q46" s="13" t="s">
         <v>1</v>
       </c>
@@ -2334,17 +2371,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="4:23" ht="24" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:23" ht="24.75" x14ac:dyDescent="0.2">
       <c r="V47" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="2:22" ht="24" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:22" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B50" s="2">
         <v>0</v>
       </c>
@@ -2406,7 +2443,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B51" s="3" t="s">
         <v>0</v>
       </c>
@@ -2468,12 +2505,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:22" ht="24" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:22" ht="24.75" x14ac:dyDescent="0.2">
       <c r="V53" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
         <v>0</v>
       </c>
@@ -2499,7 +2536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C55" s="3" t="s">
         <v>1</v>
       </c>
@@ -2525,7 +2562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:22" x14ac:dyDescent="0.2">
       <c r="D56" s="3" t="s">
         <v>1</v>
       </c>
@@ -2551,7 +2588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:22" x14ac:dyDescent="0.2">
       <c r="E57" s="3" t="s">
         <v>1</v>
       </c>
@@ -2577,7 +2614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:22" x14ac:dyDescent="0.2">
       <c r="F58" s="3" t="s">
         <v>1</v>
       </c>
@@ -2603,7 +2640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:22" x14ac:dyDescent="0.2">
       <c r="G59" s="3" t="s">
         <v>0</v>
       </c>
@@ -2629,7 +2666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:22" x14ac:dyDescent="0.2">
       <c r="H60" s="3" t="s">
         <v>1</v>
       </c>
@@ -2655,7 +2692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:22" x14ac:dyDescent="0.2">
       <c r="I61" s="13" t="s">
         <v>0</v>
       </c>
@@ -2681,7 +2718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:22" x14ac:dyDescent="0.2">
       <c r="J62" s="18" t="s">
         <v>1</v>
       </c>
@@ -2707,7 +2744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:22" x14ac:dyDescent="0.2">
       <c r="K63" s="3" t="s">
         <v>0</v>
       </c>
@@ -2733,7 +2770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:22" x14ac:dyDescent="0.2">
       <c r="L64" s="3" t="s">
         <v>1</v>
       </c>
@@ -2759,7 +2796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="M65" s="3" t="s">
         <v>0</v>
       </c>
@@ -2785,7 +2822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="N66" s="13" t="s">
         <v>0</v>
       </c>
@@ -2811,7 +2848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="O67" s="18" t="s">
         <v>1</v>
       </c>
@@ -2837,17 +2874,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="2:22" ht="24" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:22" ht="24.75" x14ac:dyDescent="0.2">
       <c r="V68" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="2:22" ht="24" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:22" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B72" s="2">
         <v>0</v>
       </c>
@@ -2909,7 +2946,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B73" s="3" t="s">
         <v>0</v>
       </c>
@@ -2971,12 +3008,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:22" ht="24" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:22" ht="24.75" x14ac:dyDescent="0.2">
       <c r="V75" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B76" s="3" t="s">
         <v>0</v>
       </c>
@@ -2999,7 +3036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="3" t="s">
         <v>1</v>
       </c>
@@ -3022,7 +3059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:22" x14ac:dyDescent="0.2">
       <c r="D78" s="3" t="s">
         <v>1</v>
       </c>
@@ -3045,7 +3082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="E79" s="3" t="s">
         <v>1</v>
       </c>
@@ -3068,7 +3105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="F80" s="20" t="s">
         <v>1</v>
       </c>
@@ -3091,7 +3128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="7:22" x14ac:dyDescent="0.3">
+    <row r="81" spans="7:22" x14ac:dyDescent="0.2">
       <c r="G81" s="3" t="s">
         <v>0</v>
       </c>
@@ -3114,7 +3151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="7:22" x14ac:dyDescent="0.3">
+    <row r="82" spans="7:22" x14ac:dyDescent="0.2">
       <c r="H82" s="20" t="s">
         <v>1</v>
       </c>
@@ -3137,7 +3174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="7:22" x14ac:dyDescent="0.3">
+    <row r="83" spans="7:22" x14ac:dyDescent="0.2">
       <c r="I83" s="21" t="s">
         <v>0</v>
       </c>
@@ -3160,7 +3197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="7:22" x14ac:dyDescent="0.3">
+    <row r="84" spans="7:22" x14ac:dyDescent="0.2">
       <c r="J84" s="22" t="s">
         <v>1</v>
       </c>
@@ -3183,7 +3220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="7:22" x14ac:dyDescent="0.3">
+    <row r="85" spans="7:22" x14ac:dyDescent="0.2">
       <c r="K85" s="23" t="s">
         <v>0</v>
       </c>
@@ -3206,7 +3243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="7:22" x14ac:dyDescent="0.3">
+    <row r="86" spans="7:22" x14ac:dyDescent="0.2">
       <c r="L86" s="3" t="s">
         <v>1</v>
       </c>
@@ -3229,7 +3266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="7:22" x14ac:dyDescent="0.3">
+    <row r="87" spans="7:22" x14ac:dyDescent="0.2">
       <c r="M87" s="3" t="s">
         <v>0</v>
       </c>
@@ -3252,7 +3289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="7:22" x14ac:dyDescent="0.3">
+    <row r="88" spans="7:22" x14ac:dyDescent="0.2">
       <c r="N88" s="21" t="s">
         <v>0</v>
       </c>
@@ -3275,7 +3312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="7:22" x14ac:dyDescent="0.3">
+    <row r="89" spans="7:22" x14ac:dyDescent="0.2">
       <c r="O89" s="22" t="s">
         <v>1</v>
       </c>
@@ -3298,7 +3335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="7:22" x14ac:dyDescent="0.3">
+    <row r="90" spans="7:22" x14ac:dyDescent="0.2">
       <c r="P90" s="23" t="s">
         <v>0</v>
       </c>
@@ -3321,7 +3358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="7:22" ht="24" x14ac:dyDescent="0.3">
+    <row r="91" spans="7:22" ht="24.75" x14ac:dyDescent="0.2">
       <c r="V91" s="7" t="s">
         <v>9</v>
       </c>
@@ -3332,6 +3369,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>